--- a/Class_VIII/Hindi/Annual Exam-2023_class_VIII.xlsx
+++ b/Class_VIII/Hindi/Annual Exam-2023_class_VIII.xlsx
@@ -248,13 +248,13 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S64" activeCellId="0" sqref="S64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
